--- a/config_excel/A_object表示例--cfg_object.xlsx
+++ b/config_excel/A_object表示例--cfg_object.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="11610"/>
+    <workbookView windowWidth="28800" windowHeight="13500"/>
   </bookViews>
   <sheets>
     <sheet name="武器(这个sheet就不会附加到导出名后部分)" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="55">
   <si>
-    <t>global配置</t>
+    <t>global配置 部分注意事项请查看备注</t>
   </si>
   <si>
     <t>部分注意事项请查看备注</t>
@@ -202,12 +202,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <name val="宋体"/>
@@ -215,14 +215,46 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -232,23 +264,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -256,67 +288,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -330,14 +310,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
@@ -345,6 +333,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
@@ -352,27 +356,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -391,187 +386,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -582,6 +577,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -596,6 +615,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -649,197 +677,163 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1159,265 +1153,259 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="26" style="3" customWidth="1"/>
-    <col min="2" max="2" width="15" style="3" customWidth="1"/>
-    <col min="3" max="3" width="11.5" style="3" customWidth="1"/>
-    <col min="4" max="4" width="19" style="3" customWidth="1"/>
+    <col min="1" max="1" width="26" style="2" customWidth="1"/>
+    <col min="2" max="2" width="15" style="2" customWidth="1"/>
+    <col min="3" max="3" width="11.5" style="2" customWidth="1"/>
+    <col min="4" max="4" width="19" style="2" customWidth="1"/>
     <col min="5" max="5" width="96.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1"/>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
       <c r="C1"/>
       <c r="D1"/>
     </row>
-    <row r="2" ht="20.25" customHeight="1" spans="1:4">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2"/>
-      <c r="C2"/>
-      <c r="D2"/>
-    </row>
-    <row r="3" s="3" customFormat="1" ht="15" customHeight="1" spans="1:4">
-      <c r="A3" s="5" t="s">
+    <row r="2" s="2" customFormat="1" ht="15" customHeight="1" spans="1:4">
+      <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>5</v>
       </c>
     </row>
+    <row r="3" ht="15" customHeight="1" spans="1:5">
+      <c r="A3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3">
+        <v>90</v>
+      </c>
+    </row>
     <row r="4" ht="15" customHeight="1" spans="1:5">
-      <c r="A4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="3" t="s">
+      <c r="A4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4">
+        <v>100.1</v>
+      </c>
+    </row>
+    <row r="5" ht="15" customHeight="1" spans="1:5">
+      <c r="A5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="5" ht="15" customHeight="1" spans="1:5">
-      <c r="A5" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="5" t="s">
+      <c r="C5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" customHeight="1" spans="1:5">
+      <c r="A6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5">
-        <v>100.1</v>
-      </c>
-    </row>
-    <row r="6" ht="15" customHeight="1" spans="1:5">
-      <c r="A6" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>13</v>
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" t="s">
+        <v>16</v>
       </c>
       <c r="E6">
-        <v>100</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:5">
-      <c r="A7" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" t="s">
-        <v>15</v>
+      <c r="A7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="D7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7">
-        <v>1001</v>
+        <v>19</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:5">
-      <c r="A8" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="3" t="s">
+      <c r="A8" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>20</v>
+      <c r="C8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:5">
-      <c r="A9" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="1">
-        <v>10000</v>
+      <c r="A9" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>23</v>
+        <v>26</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:5">
-      <c r="A10" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>25</v>
+      <c r="A10" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>29</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:5">
-      <c r="A11" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>29</v>
+      <c r="A11" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>33</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>30</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="D11" s="1"/>
       <c r="E11" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:5">
-      <c r="A12" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>33</v>
+      <c r="A12" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>37</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D12" s="1"/>
+        <v>38</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="E12" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:5">
-      <c r="A13" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B13" s="5" t="s">
+      <c r="A13" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13" s="4" t="s">
         <v>37</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>38</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="D13" s="1"/>
       <c r="E13" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="1:5">
-      <c r="A14" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B14" s="5" t="s">
+      <c r="A14" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" customHeight="1" spans="1:5">
+      <c r="A15" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B15" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C15" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="15" customHeight="1" spans="1:5">
-      <c r="A15" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="D15" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="16" customHeight="1" spans="1:5">
-      <c r="A16" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E16" s="1" t="s">
         <v>50</v>
       </c>
     </row>
@@ -1446,7 +1434,7 @@
       <c r="A1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>52</v>
       </c>
     </row>
